--- a/Code_and_Config_IPv6 SSH inc..xlsx
+++ b/Code_and_Config_IPv6 SSH inc..xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiwi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiwi\Desktop\Projekte\Netzwerke\Providing-Networks-and-Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CBE7369-7A46-4B86-8FBD-969C02EB1558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBFFF93-EEE7-4287-97F9-8E3891ADB22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14205" yWindow="0" windowWidth="14700" windowHeight="15585" tabRatio="500" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RT1SW2" sheetId="4" r:id="rId1"/>
@@ -2086,15 +2086,9 @@
     <t>ipv6 address 2001:DB8:1:10:1/64</t>
   </si>
   <si>
-    <t>hostname Bente</t>
-  </si>
-  <si>
     <t>Hostname auswählen</t>
   </si>
   <si>
-    <t>username Bente password Bente</t>
-  </si>
-  <si>
     <t>Lokalen User anlegen</t>
   </si>
   <si>
@@ -2138,18 +2132,31 @@
   </si>
   <si>
     <t>vty anhand von lokaler Datenbank authentifizieren</t>
+  </si>
+  <si>
+    <t>username Bente privilege 15 password Bente</t>
+  </si>
+  <si>
+    <t>hostname RT-HH-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="54">
+  <fonts count="55">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2796,227 +2803,227 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{4A8CE715-7DD7-4989-8906-7E83077EEB44}"/>
@@ -3949,7 +3956,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns="" xmlns:pm="smNativeData" val="SMDATA_14_Fbt7YhMAAAAlAAAAZAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAL29vQAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAIAAAAHAAAAywLGAQ0AAAALAAAAZwDvARGUAAAbBAAA6yMAAIQMAAAAAAAAMAAAABQAAAAAAAAAAAD//wAAAQAAAP//AAABAA=="/>
+              <pm:smNativeData xmlns:pm="smNativeData" xmlns="" val="SMDATA_14_Fbt7YhMAAAAlAAAAZAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAL29vQAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAIAAAAHAAAAywLGAQ0AAAALAAAAZwDvARGUAAAbBAAA6yMAAIQMAAAAAAAAMAAAABQAAAAAAAAAAAD//wAAAQAAAP//AAABAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5093,7 +5100,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns="" xmlns:pm="smNativeData" val="SMDATA_14_Fbt7YhMAAAAlAAAAZAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAL29vQAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAIAAAAHAAAAywLGAQ0AAAALAAAAZwDvARGUAAAbBAAA6yMAAIQMAAAAAAAAMAAAABQAAAAAAAAAAAD//wAAAQAAAP//AAABAA=="/>
+              <pm:smNativeData xmlns:pm="smNativeData" xmlns="" val="SMDATA_14_Fbt7YhMAAAAlAAAAZAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAL29vQAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAIAAAAHAAAAywLGAQ0AAAALAAAAZwDvARGUAAAbBAAA6yMAAIQMAAAAAAAAMAAAABQAAAAAAAAAAAD//wAAAQAAAP//AAABAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -5783,18 +5790,18 @@
   </cols>
   <sheetData>
     <row r="15" spans="2:7">
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="79" t="s">
+      <c r="C15" s="81"/>
+      <c r="D15" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="80"/>
-      <c r="F15" s="79" t="s">
+      <c r="E15" s="81"/>
+      <c r="F15" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="81"/>
+      <c r="G15" s="82"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="27" t="s">
@@ -6509,14 +6516,14 @@
   </cols>
   <sheetData>
     <row r="14" spans="1:4">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="83" t="s">
+      <c r="B14" s="83"/>
+      <c r="C14" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="83"/>
+      <c r="D14" s="84"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="36" t="s">
@@ -6679,10 +6686,10 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="84" t="s">
+      <c r="A32" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="84"/>
+      <c r="B32" s="85"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="36" t="s">
@@ -6886,36 +6893,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="89" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89" t="s">
+      <c r="D2" s="90"/>
+      <c r="E2" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="89" t="s">
+      <c r="F2" s="91"/>
+      <c r="G2" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="89"/>
+      <c r="H2" s="90"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="40" t="s">
@@ -7511,20 +7518,20 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="25.9" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="93"/>
       <c r="C3" s="32"/>
-      <c r="D3" s="93" t="s">
+      <c r="D3" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="94"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="32"/>
-      <c r="G3" s="95" t="s">
+      <c r="G3" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="96"/>
+      <c r="H3" s="97"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="50"/>
@@ -8040,22 +8047,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.45" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="98"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="99"/>
       <c r="D1" s="71"/>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="100"/>
-      <c r="I1" s="101" t="s">
+      <c r="F1" s="100"/>
+      <c r="G1" s="101"/>
+      <c r="I1" s="102" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="16"/>
@@ -8599,18 +8606,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="103" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="F1" s="103" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="F1" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5"/>
@@ -8641,22 +8648,22 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="106"/>
+      <c r="C5" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="F5" s="104" t="s">
+      <c r="D5" s="106"/>
+      <c r="F5" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="105"/>
-      <c r="H5" s="104" t="s">
+      <c r="G5" s="106"/>
+      <c r="H5" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="I5" s="105"/>
+      <c r="I5" s="106"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="44"/>
@@ -9538,16 +9545,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="21" customHeight="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="107" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="106"/>
+      <c r="B2" s="107"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="89"/>
+      <c r="B5" s="90"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="40" t="s">
@@ -9695,8 +9702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4566B26F-39FF-4169-AB7A-2019E46A6F8D}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -9713,14 +9720,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="25.9" customHeight="1">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="D3" s="109" t="s">
+      <c r="B3" s="109"/>
+      <c r="D3" s="110" t="s">
         <v>284</v>
       </c>
-      <c r="E3" s="110"/>
+      <c r="E3" s="111"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="44"/>
@@ -9793,8 +9800,8 @@
       <c r="E11" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="111"/>
-      <c r="J11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="113"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="42"/>
@@ -9876,20 +9883,20 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="B19" s="43" t="s">
         <v>301</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>302</v>
       </c>
       <c r="D19" s="40"/>
       <c r="E19" s="45"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="42" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D20" s="40" t="s">
         <v>78</v>
@@ -9900,10 +9907,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="44" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D21" s="40" t="s">
         <v>288</v>
@@ -9914,10 +9921,10 @@
     </row>
     <row r="22" spans="1:5" ht="18" customHeight="1">
       <c r="A22" s="40" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D22" s="40" t="s">
         <v>84</v>
@@ -9940,10 +9947,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="40" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D25" s="40" t="s">
         <v>100</v>
@@ -9954,10 +9961,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="42" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D26" s="40" t="s">
         <v>90</v>
@@ -9968,10 +9975,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="44" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D27" s="40" t="s">
         <v>92</v>
@@ -9994,10 +10001,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="69" t="s">
+        <v>313</v>
+      </c>
+      <c r="B30" s="55" t="s">
         <v>315</v>
-      </c>
-      <c r="B30" s="55" t="s">
-        <v>317</v>
       </c>
       <c r="D30" s="69" t="s">
         <v>289</v>
@@ -10011,7 +10018,7 @@
         <v>278</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D31" s="44" t="s">
         <v>291</v>
@@ -10021,7 +10028,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="60">
-      <c r="A32" s="113" t="s">
+      <c r="A32" s="79" t="s">
         <v>280</v>
       </c>
       <c r="B32" s="70" t="s">
@@ -10046,7 +10053,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="40" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B34" s="45"/>
       <c r="D34" s="60" t="s">
